--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,82 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>charLength</t>
-  </si>
-  <si>
-    <t>nWords</t>
-  </si>
-  <si>
-    <t>nUniqueWords</t>
-  </si>
-  <si>
-    <t>ncharNoSpaces</t>
-  </si>
-  <si>
-    <t>nSentences</t>
-  </si>
-  <si>
-    <t>wordsLongestSentence</t>
-  </si>
-  <si>
-    <t>wordsShortestSentence</t>
-  </si>
-  <si>
-    <t>avgSentenceWords</t>
-  </si>
-  <si>
-    <t>avgSentenceChars</t>
-  </si>
-  <si>
-    <t>avgWordLength</t>
-  </si>
-  <si>
-    <t>nParagraphs</t>
-  </si>
-  <si>
-    <t>syllables</t>
-  </si>
-  <si>
-    <t>words_publisher</t>
-  </si>
-  <si>
-    <t>readingLevel</t>
-  </si>
-  <si>
-    <t>readingTime</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,16 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -389,134 +339,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="8.5703125"/>
+    <col customWidth="1" max="3" min="3" width="15.42578125"/>
+    <col customWidth="1" max="4" min="4" width="17.42578125"/>
+    <col customWidth="1" max="6" min="6" width="26.42578125"/>
+    <col customWidth="1" max="7" min="7" width="19.28515625"/>
+    <col customWidth="1" max="8" min="8" width="21.7109375"/>
+    <col customWidth="1" max="9" min="9" width="20.5703125"/>
+    <col customWidth="1" max="10" min="10" width="19"/>
+    <col customWidth="1" max="11" min="11" width="18.28515625"/>
+    <col customWidth="1" max="13" min="13" width="12.140625"/>
+    <col customWidth="1" max="14" min="14" width="14"/>
+    <col customWidth="1" max="15" min="15" width="18.140625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>charLength</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>nWords</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nUniqueWords</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ncharNoSpaces</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nSentences</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>wordsLongestSentence</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>wordsShortestSentence</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>avgSentenceWords</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>avgSentenceChars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>avgWordLength</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>nParagraphs</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>syllables</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>words_publisher</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>readingLevel</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>readingTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>34</v>
       </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="F3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="L3" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>3.714285714285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+      <c r="M3" t="n">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+      <c r="N3" t="n">
         <v>6.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+      <c r="O3" t="n">
         <v>0.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -45,7 +45,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -344,27 +346,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="23.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="8.5703125"/>
-    <col customWidth="1" max="3" min="3" width="15.42578125"/>
-    <col customWidth="1" max="4" min="4" width="17.42578125"/>
-    <col customWidth="1" max="6" min="6" width="26.42578125"/>
-    <col customWidth="1" max="7" min="7" width="19.28515625"/>
-    <col customWidth="1" max="8" min="8" width="21.7109375"/>
-    <col customWidth="1" max="9" min="9" width="20.5703125"/>
-    <col customWidth="1" max="10" min="10" width="19"/>
-    <col customWidth="1" max="11" min="11" width="18.28515625"/>
-    <col customWidth="1" max="13" min="13" width="12.140625"/>
-    <col customWidth="1" max="14" min="14" width="14"/>
-    <col customWidth="1" max="15" min="15" width="18.140625"/>
+    <col customWidth="1" max="1" min="1" style="2" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="8.5703125"/>
+    <col customWidth="1" max="3" min="3" style="2" width="15.42578125"/>
+    <col customWidth="1" max="4" min="4" style="2" width="17.42578125"/>
+    <col customWidth="1" max="6" min="6" style="2" width="26.42578125"/>
+    <col customWidth="1" max="7" min="7" style="2" width="19.28515625"/>
+    <col customWidth="1" max="8" min="8" style="2" width="21.7109375"/>
+    <col customWidth="1" max="9" min="9" style="2" width="20.5703125"/>
+    <col customWidth="1" max="10" min="10" style="2" width="19"/>
+    <col customWidth="1" max="11" min="11" style="2" width="18.28515625"/>
+    <col customWidth="1" max="13" min="13" style="2" width="12.140625"/>
+    <col customWidth="1" max="14" min="14" style="2" width="14"/>
+    <col customWidth="1" max="15" min="15" style="2" width="18.140625"/>
+    <col customWidth="1" max="16" min="16" style="2" width="16.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,6 +446,21 @@
           <t>readingTime</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>sentimentPolarity</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>nParagraphs</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -536,6 +554,614 @@
       </c>
       <c r="O3" t="n">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B4" t="n">
+        <v>256</v>
+      </c>
+      <c r="C4" t="n">
+        <v>181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>252</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I4" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>507</v>
+      </c>
+      <c r="M4" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B5" t="n">
+        <v>256</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>252</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>507</v>
+      </c>
+      <c r="M5" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B6" t="n">
+        <v>256</v>
+      </c>
+      <c r="C6" t="n">
+        <v>181</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>252</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>507</v>
+      </c>
+      <c r="M6" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0808645276292335</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B7" t="n">
+        <v>256</v>
+      </c>
+      <c r="C7" t="n">
+        <v>181</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>252</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>507</v>
+      </c>
+      <c r="M7" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0808645276292335</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B8" t="n">
+        <v>256</v>
+      </c>
+      <c r="C8" t="n">
+        <v>181</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>252</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I8" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>507</v>
+      </c>
+      <c r="M8" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0808645276292335</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>C-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B9" t="n">
+        <v>256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>181</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>252</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I9" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>507</v>
+      </c>
+      <c r="M9" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0808645276292335</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>sw</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B11" t="n">
+        <v>256</v>
+      </c>
+      <c r="C11" t="n">
+        <v>181</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>252</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>507</v>
+      </c>
+      <c r="M11" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0808645276292335</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B13" t="n">
+        <v>256</v>
+      </c>
+      <c r="C13" t="n">
+        <v>181</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>252</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I13" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>507</v>
+      </c>
+      <c r="M13" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0808645276292335</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>12</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B14" t="n">
+        <v>256</v>
+      </c>
+      <c r="C14" t="n">
+        <v>181</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>252</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="I14" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.15625</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>507</v>
+      </c>
+      <c r="M14" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0808645276292335</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
     </row>
   </sheetData>
